--- a/data_excel/969.xlsx
+++ b/data_excel/969.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,15 +111,15 @@
     <t>4</t>
   </si>
   <si>
-    <t>-</t>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="2" sqref="G3 C3 C10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
